--- a/Data/EC/NIT-8001626124.xlsx
+++ b/Data/EC/NIT-8001626124.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F4F2F6-A675-4D59-AA20-93537A77306A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7171214-6870-4E24-9D91-ED1063D8B25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B858AE4-900C-46FB-8210-1748C204DEFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96C4D4E0-141D-40D9-BAA1-B28A6D8ABF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="76">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,52 +65,142 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050036275</t>
+  </si>
+  <si>
+    <t>LESBIA MARGARITA PEREZ FONSECA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>8329189</t>
+  </si>
+  <si>
+    <t>DAIRON ISAIAS CONTRERAS ARTEAGA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>32930613</t>
+  </si>
+  <si>
+    <t>KELY JOHANNA SEVERICHE CASERES</t>
+  </si>
+  <si>
+    <t>73197701</t>
+  </si>
+  <si>
+    <t>CARLOS ENRIQUE SUAREZ MAZA</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1002197382</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO AGUILAR GIRADO</t>
+  </si>
+  <si>
+    <t>1064986726</t>
+  </si>
+  <si>
+    <t>YAIR FERNANDO FLOREZ ALTAMIRANDA</t>
+  </si>
+  <si>
+    <t>1052735928</t>
+  </si>
+  <si>
+    <t>YEIMIS VALENCIA PEREZ</t>
+  </si>
+  <si>
     <t>1047410845</t>
   </si>
   <si>
     <t>YULIZA ARGEL CHAVEZ</t>
   </si>
   <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>2208</t>
   </si>
   <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>73197701</t>
-  </si>
-  <si>
-    <t>CARLOS ENRIQUE SUAREZ MAZA</t>
-  </si>
-  <si>
-    <t>1002197382</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO AGUILAR GIRADO</t>
+    <t>1041970724</t>
+  </si>
+  <si>
+    <t>YENIFER THERAN TORRES</t>
   </si>
   <si>
     <t>73203390</t>
@@ -119,31 +209,10 @@
     <t>ARIEL FRANCISCO LUNA RUIZ</t>
   </si>
   <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>8329189</t>
-  </si>
-  <si>
-    <t>DAIRON ISAIAS CONTRERAS ARTEAGA</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>1041970724</t>
-  </si>
-  <si>
-    <t>YENIFER THERAN TORRES</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
+    <t>1235043382</t>
+  </si>
+  <si>
+    <t>LICETH CESAR BARRIOS</t>
   </si>
   <si>
     <t>1143374491</t>
@@ -152,52 +221,16 @@
     <t>ANDREA DEL CARMEN VELASQUEZ CASTRO</t>
   </si>
   <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1052735928</t>
-  </si>
-  <si>
-    <t>YEIMIS VALENCIA PEREZ</t>
-  </si>
-  <si>
-    <t>1050036275</t>
-  </si>
-  <si>
-    <t>LESBIA MARGARITA PEREZ FONSECA</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1007987814</t>
+  </si>
+  <si>
+    <t>DANIELA ROSA YEPES PASTRANA</t>
+  </si>
+  <si>
+    <t>1140830425</t>
+  </si>
+  <si>
+    <t>RAFAEL EMILIO ESTRADA PEÃ?A</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -611,7 +644,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B808629D-5F7D-3F30-8A31-21798BDADF65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6448C3-B502-B6B8-3BB7-97887089FBE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDB0414-8786-4C06-9845-BE30FF173C5C}">
-  <dimension ref="B2:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B0700D-794F-4C6A-AB2A-51063589EB76}">
+  <dimension ref="B2:J96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +1020,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1065,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1097,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2291332</v>
+        <v>3459572</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1113,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,10 +1173,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28000</v>
+        <v>12133</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1163,10 +1196,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1186,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1209,10 +1242,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1232,10 +1265,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1255,10 +1288,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,19 +1325,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1315,19 +1348,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1338,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1361,19 +1394,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>10827</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1384,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>10827</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1407,19 +1440,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F28" s="18">
-        <v>17013</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1430,19 +1463,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F29" s="18">
-        <v>36000</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1453,16 +1486,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F30" s="18">
-        <v>29466</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
         <v>1300000</v>
@@ -1476,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
-        <v>15600</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1499,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1522,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1545,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1568,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1591,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1614,16 +1647,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>1733</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -1637,16 +1670,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>29466</v>
       </c>
       <c r="G38" s="18">
         <v>1300000</v>
@@ -1660,19 +1693,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>66550</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>868193</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1683,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>66550</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>868193</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1706,19 +1739,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>66550</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>868193</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1729,19 +1762,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F42" s="18">
-        <v>1733</v>
+        <v>66550</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>868193</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1752,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>66550</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>868193</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1775,19 +1808,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>66550</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>868193</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1798,19 +1831,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>10827</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1821,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>10827</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1844,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1867,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1890,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1913,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1936,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1959,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -1982,16 +2015,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F53" s="18">
-        <v>52000</v>
+        <v>1733</v>
       </c>
       <c r="G53" s="18">
         <v>1300000</v>
@@ -2005,19 +2038,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F54" s="18">
-        <v>52000</v>
+        <v>36000</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2028,19 +2061,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2051,19 +2084,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F56" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2074,19 +2107,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F57" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2097,19 +2130,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2120,19 +2153,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2143,19 +2176,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E60" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" s="18">
-        <v>12133</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2166,19 +2199,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2189,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2212,19 +2245,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2235,19 +2268,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>28000</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2258,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2281,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2304,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2323,56 +2356,562 @@
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="22" t="s">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G79" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F68" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G68" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="32" t="s">
+      <c r="F80" s="18">
+        <v>15600</v>
+      </c>
+      <c r="G80" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="18">
+        <v>17013</v>
+      </c>
+      <c r="G81" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G82" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="18">
+        <v>1733</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G85" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G86" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="H73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="32"/>
-      <c r="H74" s="1" t="s">
+      <c r="D90" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="E90" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="24">
+        <v>17600</v>
+      </c>
+      <c r="G90" s="24">
+        <v>2200000</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="26"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="H95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="H96" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H95:J95"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
